--- a/data/raw/files28/al-ma-03-06-07-859-f.xlsx
+++ b/data/raw/files28/al-ma-03-06-07-859-f.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA67"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,169 +360,169 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Date and time</t>
+          <t>Sat, 18 Mar 2023 10:13:36</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>question_context (multipleChoice)</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>question8scs (multipleChoice)</t>
+          <t>Leggermente vero...3</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>question2scs (multipleChoice)</t>
+          <t>Leggermente falso...4</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>question_satisfied (smiley)</t>
+          <t>79</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>question_nervous (smiley)</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>question_happiness (smiley)</t>
+          <t>70</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>question6scs (multipleChoice)</t>
+          <t>Leggermente vero...8</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>question7scs (multipleChoice)</t>
+          <t>Leggermente falso...9</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>question_dec4 (multipleChoice)</t>
+          <t>Moderatamente falso...10</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>question1scs (multipleChoice)</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>question3scs (multipleChoice)</t>
+          <t>Leggermente vero...12</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>question_dec3 (multipleChoice)</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>question4scs (multipleChoice)</t>
+          <t>Leggermente vero...14</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>question_sad (smiley)</t>
+          <t>5</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>question_dec2 (multipleChoice)</t>
+          <t>Moderatamente falso...16</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>question_dec1 (multipleChoice)</t>
+          <t>Leggermente vero...17</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>question5scs (multipleChoice)</t>
+          <t>Moderatamente falso...18</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>question_emotion (multiSmiley)</t>
+          <t>happy</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>yesnoexam (yesno)</t>
+          <t>...20</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_yes (multiSmiley)</t>
+          <t>...21</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>exam_preparation (sliderNegPos)</t>
+          <t>...22</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>grade_exp (sliderNeutralPos)</t>
+          <t>...23</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>momentary_emotion_no (multiSmiley)</t>
+          <t>...24</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_no (smiley)</t>
+          <t>...25</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>real_grade (sliderNeutralPos)</t>
+          <t>...26</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>emotion_valence_yes (smiley)</t>
+          <t>...27</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 10:13:36</t>
+          <t>Sat, 18 Mar 2023 14:13:13</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="E2">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="F2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -541,7 +541,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -556,11 +556,11 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -569,7 +569,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -586,7 +586,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 14:13:13</t>
+          <t>Sat, 18 Mar 2023 17:46:32</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -596,22 +596,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E3">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
@@ -620,7 +620,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -649,16 +649,16 @@
         </is>
       </c>
       <c r="O3">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
@@ -675,12 +675,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 17:46:32</t>
+          <t>Sat, 18 Mar 2023 19:04:37</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -704,17 +704,17 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -738,16 +738,16 @@
         </is>
       </c>
       <c r="O4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -764,7 +764,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 19:04:37</t>
+          <t>Sat, 18 Mar 2023 21:32:23</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -783,17 +783,17 @@
         </is>
       </c>
       <c r="E5">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -803,27 +803,27 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>Totalmente falso</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O5">
@@ -831,12 +831,12 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -846,14 +846,14 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sat, 18 Mar 2023 21:32:23</t>
+          <t>Sat, 25 Mar 2023 10:52:22</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -872,13 +872,13 @@
         </is>
       </c>
       <c r="E6">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -887,22 +887,22 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -916,16 +916,16 @@
         </is>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -935,24 +935,24 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 10:52:22</t>
+          <t>Sat, 25 Mar 2023 14:07:35</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -961,10 +961,10 @@
         </is>
       </c>
       <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
         <v>20</v>
-      </c>
-      <c r="F7">
-        <v>50</v>
       </c>
       <c r="G7">
         <v>29</v>
@@ -976,7 +976,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1001,15 +1001,15 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O7">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1024,14 +1024,14 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 14:07:35</t>
+          <t>Sat, 25 Mar 2023 17:27:29</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1050,14 +1050,14 @@
         </is>
       </c>
       <c r="E8">
+        <v>50</v>
+      </c>
+      <c r="F8">
+        <v>41</v>
+      </c>
+      <c r="G8">
         <v>30</v>
       </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-      <c r="G8">
-        <v>29</v>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>Leggermente vero</t>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1090,15 +1090,15 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1113,19 +1113,19 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>happy, stress, angry</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 17:27:29</t>
+          <t>Sat, 25 Mar 2023 19:54:27</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1142,14 +1142,14 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1179,15 +1179,15 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O9">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
@@ -1202,14 +1202,14 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>happy, stress, angry</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 19:54:27</t>
+          <t>Sat, 25 Mar 2023 21:28:20</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1219,26 +1219,26 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
@@ -1272,11 +1272,11 @@
         </is>
       </c>
       <c r="O10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
@@ -1286,19 +1286,19 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sat, 25 Mar 2023 21:28:20</t>
+          <t>Sat, 01 Apr 2023 10:15:43</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1308,86 +1308,86 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="E11">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>61</v>
+      </c>
+      <c r="G11">
+        <v>19</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>Totalmente falso</t>
         </is>
       </c>
-      <c r="E11">
-        <v>66</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>62</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 10:15:43</t>
+          <t>Sat, 01 Apr 2023 14:37:02</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1406,22 +1406,22 @@
         </is>
       </c>
       <c r="E12">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F12">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="G12">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -1441,25 +1441,25 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="O12">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -1469,24 +1469,24 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, stress, fear</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 14:37:02</t>
+          <t>Sat, 01 Apr 2023 17:11:06</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Spiacevole</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1495,13 +1495,13 @@
         </is>
       </c>
       <c r="E13">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="F13">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G13">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1515,7 +1515,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1530,52 +1530,52 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O13">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>happy, stress, fear</t>
+          <t>stress, fear, sad</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 17:11:06</t>
+          <t>Sat, 01 Apr 2023 20:00:17</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Spiacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1584,7 +1584,7 @@
         </is>
       </c>
       <c r="E14">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>20</v>
@@ -1594,7 +1594,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1614,35 +1614,35 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O14">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
@@ -1654,17 +1654,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 20:00:17</t>
+          <t>Sat, 01 Apr 2023 21:15:11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1673,13 +1673,13 @@
         </is>
       </c>
       <c r="E15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>20</v>
       </c>
       <c r="G15">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1693,7 +1693,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
@@ -1717,7 +1717,7 @@
         </is>
       </c>
       <c r="O15">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -1736,14 +1736,14 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>stress, fear, sad</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sat, 01 Apr 2023 21:15:11</t>
+          <t>Sat, 08 Apr 2023 10:36:24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1753,7 +1753,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1762,52 +1762,52 @@
         </is>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16">
+        <v>65</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Totalmente falso</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="O16">
         <v>20</v>
       </c>
-      <c r="G16">
-        <v>41</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="O16">
-        <v>29</v>
-      </c>
       <c r="P16" t="inlineStr">
         <is>
           <t>Leggermente falso</t>
@@ -1815,7 +1815,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -1825,19 +1825,19 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 10:36:24</t>
+          <t>Sat, 08 Apr 2023 14:21:19</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1851,13 +1851,13 @@
         </is>
       </c>
       <c r="E17">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F17">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="G17">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1881,7 +1881,7 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="O17">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
@@ -1914,14 +1914,14 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 14:21:19</t>
+          <t>Sat, 08 Apr 2023 17:31:33</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1940,17 +1940,17 @@
         </is>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>81</v>
       </c>
       <c r="F18">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1960,7 +1960,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="O18">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -1993,29 +1993,29 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>stress, happy</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 17:31:33</t>
+          <t>Sat, 08 Apr 2023 19:01:31</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2025,21 +2025,21 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="E19">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="G19">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2054,7 +2054,7 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -2069,11 +2069,11 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O19">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -2082,24 +2082,24 @@
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>stress, happy</t>
+          <t>happy, stress, fear</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 19:01:31</t>
+          <t>Sat, 08 Apr 2023 21:35:04</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -2109,26 +2109,26 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E20">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2138,12 +2138,12 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
@@ -2158,7 +2158,7 @@
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O20">
@@ -2181,19 +2181,19 @@
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>happy, stress, fear</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sat, 08 Apr 2023 21:35:04</t>
+          <t>Sat, 15 Apr 2023 10:10:29</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2207,17 +2207,17 @@
         </is>
       </c>
       <c r="E21">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -2227,7 +2227,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2242,7 +2242,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2251,7 +2251,7 @@
         </is>
       </c>
       <c r="O21">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2270,14 +2270,14 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress, fear</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 10:10:29</t>
+          <t>Sat, 15 Apr 2023 14:23:10</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -2296,17 +2296,17 @@
         </is>
       </c>
       <c r="E22">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F22">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="G22">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -2316,7 +2316,7 @@
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
@@ -2340,11 +2340,11 @@
         </is>
       </c>
       <c r="O22">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
@@ -2359,24 +2359,24 @@
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>stress, fear</t>
+          <t>fear, stress</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 14:23:10</t>
+          <t>Sat, 15 Apr 2023 17:17:35</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2385,17 +2385,17 @@
         </is>
       </c>
       <c r="E23">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="F23">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="G23">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
@@ -2448,14 +2448,14 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>fear, stress</t>
+          <t>happy, fear, stress</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 17:17:35</t>
+          <t>Sat, 15 Apr 2023 19:33:59</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2474,13 +2474,13 @@
         </is>
       </c>
       <c r="E24">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F24">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G24">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
@@ -2489,7 +2489,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="O24">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2532,58 +2532,58 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>happy, fear, stress</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 19:33:59</t>
+          <t>Sat, 15 Apr 2023 21:11:59</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="E25">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="F25">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G25">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2603,15 +2603,15 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O25">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
@@ -2621,48 +2621,48 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>sad, fear</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sat, 15 Apr 2023 21:11:59</t>
+          <t>Sun, 16 Apr 2023 20:35:12</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E26">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F26">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G26">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
@@ -2692,15 +2692,15 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
@@ -2713,26 +2713,45 @@
           <t>Moderatamente falso</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>sad, fear</t>
-        </is>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V26">
+        <v>75</v>
+      </c>
+      <c r="W26">
+        <v>60</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>stress, fear, happy, sad</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sun, 16 Apr 2023 20:35:12</t>
+          <t>Mon, 17 Apr 2023 20:36:59</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Molto piacevole</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2741,13 +2760,13 @@
         </is>
       </c>
       <c r="E27">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F27">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
@@ -2771,7 +2790,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -2781,11 +2800,11 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="O27">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -2804,38 +2823,35 @@
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
+          <t>happy, fear</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V27">
-        <v>75</v>
-      </c>
-      <c r="W27">
-        <v>60</v>
-      </c>
-      <c r="X27" t="inlineStr">
-        <is>
-          <t>stress, fear, happy, sad</t>
-        </is>
-      </c>
-      <c r="Y27">
-        <v>59</v>
+      <c r="Z27">
+        <v>100</v>
+      </c>
+      <c r="AA27">
+        <v>80</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Mon, 17 Apr 2023 20:36:59</t>
+          <t>Sat, 22 Apr 2023 10:37:07</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Molto piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2849,17 +2865,17 @@
         </is>
       </c>
       <c r="E28">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="F28">
         <v>10</v>
       </c>
       <c r="G28">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -2869,12 +2885,12 @@
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
@@ -2889,20 +2905,20 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O28">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
@@ -2910,37 +2926,21 @@
           <t>Moderatamente falso</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U28" t="inlineStr">
-        <is>
-          <t>happy, fear</t>
-        </is>
-      </c>
-      <c r="X28" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z28">
-        <v>100</v>
-      </c>
-      <c r="AA28">
-        <v>80</v>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>happy</t>
+        </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 10:37:07</t>
+          <t>Sat, 22 Apr 2023 14:48:05</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2954,17 +2954,17 @@
         </is>
       </c>
       <c r="E29">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F29">
         <v>10</v>
       </c>
       <c r="G29">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2974,12 +2974,12 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -2998,16 +2998,16 @@
         </is>
       </c>
       <c r="O29">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
@@ -3017,24 +3017,24 @@
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 14:48:05</t>
+          <t>Sat, 22 Apr 2023 17:53:54</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -3043,17 +3043,17 @@
         </is>
       </c>
       <c r="E30">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="F30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G30">
         <v>61</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -3078,7 +3078,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3087,16 +3087,16 @@
         </is>
       </c>
       <c r="O30">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
@@ -3113,7 +3113,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 17:53:54</t>
+          <t>Sat, 22 Apr 2023 19:24:20</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -3132,13 +3132,13 @@
         </is>
       </c>
       <c r="E31">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G31">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
@@ -3157,7 +3157,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -3185,7 +3185,7 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
@@ -3195,14 +3195,14 @@
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 19:24:20</t>
+          <t>Sat, 22 Apr 2023 21:13:27</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -3221,13 +3221,13 @@
         </is>
       </c>
       <c r="E32">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F32">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G32">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="O32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3291,12 +3291,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sat, 22 Apr 2023 21:13:27</t>
+          <t>Sat, 29 Apr 2023 10:06:40</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3310,13 +3310,13 @@
         </is>
       </c>
       <c r="E33">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="F33">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G33">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
@@ -3335,7 +3335,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="O33">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3368,7 +3368,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -3380,12 +3380,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 10:06:40</t>
+          <t>Sat, 29 Apr 2023 14:27:20</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3399,13 +3399,13 @@
         </is>
       </c>
       <c r="E34">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="F34">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G34">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
@@ -3443,7 +3443,7 @@
         </is>
       </c>
       <c r="O34">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3457,19 +3457,19 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 14:27:20</t>
+          <t>Sat, 29 Apr 2023 17:55:44</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -3479,22 +3479,22 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="E35">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="F35">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G35">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -3523,7 +3523,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="O35">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3546,44 +3546,44 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 17:55:44</t>
+          <t>Sat, 29 Apr 2023 19:19:48</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E36">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F36">
         <v>11</v>
       </c>
       <c r="G36">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
@@ -3607,12 +3607,12 @@
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3635,7 +3635,7 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -3647,12 +3647,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 19:19:48</t>
+          <t>Sat, 29 Apr 2023 21:46:51</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3666,13 +3666,13 @@
         </is>
       </c>
       <c r="E37">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="F37">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="G37">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="O37">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
@@ -3736,12 +3736,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sat, 29 Apr 2023 21:46:51</t>
+          <t>Sat, 06 May 2023 10:07:36</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3755,22 +3755,22 @@
         </is>
       </c>
       <c r="E38">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="F38">
         <v>5</v>
       </c>
       <c r="G38">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
@@ -3790,7 +3790,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -3799,7 +3799,7 @@
         </is>
       </c>
       <c r="O38">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -3818,19 +3818,19 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 10:07:36</t>
+          <t>Sat, 06 May 2023 14:51:31</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3844,52 +3844,52 @@
         </is>
       </c>
       <c r="E39">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F39">
+        <v>6</v>
+      </c>
+      <c r="G39">
+        <v>77</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Leggermente falso</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="O39">
         <v>5</v>
       </c>
-      <c r="G39">
-        <v>70</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>Totalmente falso</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="O39">
-        <v>10</v>
-      </c>
       <c r="P39" t="inlineStr">
         <is>
           <t>Moderatamente falso</t>
@@ -3897,7 +3897,7 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
@@ -3914,7 +3914,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 14:51:31</t>
+          <t>Sat, 06 May 2023 17:20:30</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -3933,17 +3933,17 @@
         </is>
       </c>
       <c r="E40">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G40">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3958,12 +3958,12 @@
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
@@ -3977,7 +3977,7 @@
         </is>
       </c>
       <c r="O40">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
@@ -4003,7 +4003,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 17:20:30</t>
+          <t>Sat, 06 May 2023 19:02:05</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -4022,13 +4022,13 @@
         </is>
       </c>
       <c r="E41">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G41">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -4066,7 +4066,7 @@
         </is>
       </c>
       <c r="O41">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4075,7 +4075,7 @@
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
@@ -4092,7 +4092,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 19:02:05</t>
+          <t>Sat, 06 May 2023 21:27:14</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -4111,13 +4111,13 @@
         </is>
       </c>
       <c r="E42">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F42">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G42">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
@@ -4136,12 +4136,12 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
@@ -4155,7 +4155,7 @@
         </is>
       </c>
       <c r="O42">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4169,7 +4169,7 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -4181,7 +4181,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sat, 06 May 2023 21:27:14</t>
+          <t>Sat, 13 May 2023 11:04:25</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -4196,17 +4196,17 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="E43">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G43">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
@@ -4225,12 +4225,12 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
@@ -4258,19 +4258,19 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>happy</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 11:04:25</t>
+          <t>Sat, 13 May 2023 14:25:01</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -4285,81 +4285,81 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="E44">
+        <v>97</v>
+      </c>
+      <c r="F44">
+        <v>8</v>
+      </c>
+      <c r="G44">
+        <v>76</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Leggermente vero</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="O44">
+        <v>5</v>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Moderatamente falso</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Moderatamente vero</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>Totalmente falso</t>
         </is>
       </c>
-      <c r="E44">
-        <v>84</v>
-      </c>
-      <c r="F44">
-        <v>6</v>
-      </c>
-      <c r="G44">
-        <v>86</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Moderatamente vero</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="O44">
-        <v>7</v>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>happy</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 14:25:01</t>
+          <t>Sat, 13 May 2023 17:07:09</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -4378,13 +4378,13 @@
         </is>
       </c>
       <c r="E45">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F45">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G45">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
@@ -4418,11 +4418,11 @@
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="O45">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4448,7 +4448,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 17:07:09</t>
+          <t>Sat, 13 May 2023 20:10:54</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -4467,17 +4467,17 @@
         </is>
       </c>
       <c r="E46">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F46">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="G46">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -4507,7 +4507,7 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O46">
@@ -4520,12 +4520,12 @@
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -4537,7 +4537,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 20:10:54</t>
+          <t>Sat, 13 May 2023 21:51:18</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -4552,17 +4552,17 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="E47">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F47">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="G47">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
@@ -4600,7 +4600,7 @@
         </is>
       </c>
       <c r="O47">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4614,7 +4614,7 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -4626,32 +4626,32 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sat, 13 May 2023 21:51:18</t>
+          <t>Sat, 20 May 2023 10:49:44</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="E48">
-        <v>83</v>
+        <v>40</v>
       </c>
       <c r="F48">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="G48">
-        <v>90</v>
+        <v>16</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -4685,62 +4685,62 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O48">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 10:49:44</t>
+          <t>Sat, 20 May 2023 14:26:35</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="E49">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F49">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="G49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
@@ -4774,20 +4774,20 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O49">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
@@ -4804,7 +4804,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 14:26:35</t>
+          <t>Sat, 20 May 2023 17:01:24</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -4823,17 +4823,17 @@
         </is>
       </c>
       <c r="E50">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F50">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="G50">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -4853,21 +4853,21 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O50">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -4893,7 +4893,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 17:01:24</t>
+          <t>Sat, 20 May 2023 20:30:02</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -4912,17 +4912,17 @@
         </is>
       </c>
       <c r="E51">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F51">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G51">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
@@ -4947,7 +4947,7 @@
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -4956,11 +4956,11 @@
         </is>
       </c>
       <c r="O51">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -4975,14 +4975,14 @@
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>stress, happy</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 20:30:02</t>
+          <t>Sat, 20 May 2023 21:33:02</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -5001,17 +5001,17 @@
         </is>
       </c>
       <c r="E52">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F52">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G52">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
@@ -5031,7 +5031,7 @@
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
@@ -5041,11 +5041,11 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O52">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
@@ -5064,24 +5064,24 @@
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>stress, happy</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sat, 20 May 2023 21:33:02</t>
+          <t>Sun, 21 May 2023 20:05:43</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5090,17 +5090,17 @@
         </is>
       </c>
       <c r="E53">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F53">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="G53">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
@@ -5130,15 +5130,15 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O53">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
@@ -5151,26 +5151,45 @@
           <t>Moderatamente falso</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="V53">
+        <v>50</v>
+      </c>
+      <c r="W53">
+        <v>55</v>
+      </c>
+      <c r="X53" t="inlineStr">
         <is>
           <t>stress</t>
         </is>
+      </c>
+      <c r="Y53">
+        <v>85</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Sun, 21 May 2023 20:05:43</t>
+          <t>Mon, 22 May 2023 20:44:40</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -5179,17 +5198,17 @@
         </is>
       </c>
       <c r="E54">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="F54">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="G54">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -5199,7 +5218,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -5209,7 +5228,7 @@
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
@@ -5219,7 +5238,7 @@
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O54">
@@ -5242,33 +5261,30 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>yes</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
+          <t>happy, stress</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
           <t>-1</t>
         </is>
       </c>
-      <c r="V54">
-        <v>50</v>
-      </c>
-      <c r="W54">
-        <v>55</v>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-      <c r="Y54">
-        <v>85</v>
+      <c r="Z54">
+        <v>100</v>
+      </c>
+      <c r="AA54">
+        <v>80</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Mon, 22 May 2023 20:44:40</t>
+          <t>Tue, 23 May 2023 21:12:50</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -5287,17 +5303,17 @@
         </is>
       </c>
       <c r="E55">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F55">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G55">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
@@ -5317,12 +5333,12 @@
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5331,11 +5347,11 @@
         </is>
       </c>
       <c r="O55">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
@@ -5345,7 +5361,7 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
@@ -5373,7 +5389,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Tue, 23 May 2023 21:12:50</t>
+          <t>Wed, 24 May 2023 20:37:39</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -5383,7 +5399,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5392,13 +5408,13 @@
         </is>
       </c>
       <c r="E56">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G56">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
@@ -5417,7 +5433,7 @@
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -5427,7 +5443,7 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -5440,7 +5456,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5450,7 +5466,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -5472,13 +5488,13 @@
         <v>100</v>
       </c>
       <c r="AA56">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Wed, 24 May 2023 20:37:39</t>
+          <t>Thu, 25 May 2023 21:55:32</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -5497,13 +5513,13 @@
         </is>
       </c>
       <c r="E57">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="F57">
         <v>11</v>
       </c>
       <c r="G57">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
@@ -5522,12 +5538,12 @@
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
@@ -5541,7 +5557,7 @@
         </is>
       </c>
       <c r="O57">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -5577,13 +5593,13 @@
         <v>100</v>
       </c>
       <c r="AA57">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Thu, 25 May 2023 21:55:32</t>
+          <t>Sat, 27 May 2023 10:32:10</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -5593,7 +5609,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5602,17 +5618,17 @@
         </is>
       </c>
       <c r="E58">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F58">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G58">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
@@ -5622,17 +5638,17 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
@@ -5642,20 +5658,20 @@
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="O58">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
@@ -5663,42 +5679,26 @@
           <t>Moderatamente falso</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>happy, stress</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>-1</t>
-        </is>
-      </c>
-      <c r="Z58">
-        <v>100</v>
-      </c>
-      <c r="AA58">
-        <v>78</v>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>stress</t>
+        </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 10:32:10</t>
+          <t>Sat, 27 May 2023 14:23:41</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Piacevole</t>
+          <t>Né spiacevole né piacevole</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -5707,13 +5707,13 @@
         </is>
       </c>
       <c r="E59">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F59">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G59">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
@@ -5727,17 +5727,17 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M59" t="inlineStr">
@@ -5747,15 +5747,15 @@
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="O59">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
@@ -5777,17 +5777,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 14:23:41</t>
+          <t>Sat, 27 May 2023 17:51:58</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Né spiacevole né piacevole</t>
+          <t>Piacevole</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -5796,17 +5796,17 @@
         </is>
       </c>
       <c r="E60">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F60">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="G60">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -5826,7 +5826,7 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
@@ -5844,7 +5844,7 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
@@ -5866,7 +5866,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 17:51:58</t>
+          <t>Sat, 27 May 2023 19:42:13</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -5885,13 +5885,13 @@
         </is>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="F61">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="G61">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
@@ -5920,16 +5920,16 @@
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O61">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -5943,7 +5943,7 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Totalmente falso</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
@@ -5955,7 +5955,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 19:42:13</t>
+          <t>Sat, 27 May 2023 21:20:06</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -5965,7 +5965,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -5974,13 +5974,13 @@
         </is>
       </c>
       <c r="E62">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F62">
         <v>6</v>
       </c>
       <c r="G62">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
@@ -5989,12 +5989,12 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -6009,30 +6009,30 @@
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="O62">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Totalmente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
@@ -6044,7 +6044,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Sat, 27 May 2023 21:20:06</t>
+          <t>Sat, 03 Jun 2023 10:58:00</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -6054,7 +6054,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -6063,27 +6063,27 @@
         </is>
       </c>
       <c r="E63">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="F63">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G63">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
@@ -6107,11 +6107,11 @@
         </is>
       </c>
       <c r="O63">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -6126,14 +6126,14 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>stress</t>
+          <t>happy, stress</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 10:58:00</t>
+          <t>Sat, 03 Jun 2023 15:28:48</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -6152,13 +6152,13 @@
         </is>
       </c>
       <c r="E64">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G64">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
@@ -6182,7 +6182,7 @@
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="M64" t="inlineStr">
@@ -6192,15 +6192,15 @@
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="O64">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -6222,7 +6222,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 15:28:48</t>
+          <t>Sat, 03 Jun 2023 18:00:52</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -6232,7 +6232,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -6241,17 +6241,17 @@
         </is>
       </c>
       <c r="E65">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="F65">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G65">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
@@ -6271,7 +6271,7 @@
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="M65" t="inlineStr">
@@ -6285,16 +6285,16 @@
         </is>
       </c>
       <c r="O65">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Moderatamente vero</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
@@ -6304,14 +6304,14 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>happy, stress</t>
+          <t>stress</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Sat, 03 Jun 2023 18:00:52</t>
+          <t>Sat, 03 Jun 2023 19:49:10</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -6330,13 +6330,13 @@
         </is>
       </c>
       <c r="E66">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G66">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
@@ -6350,7 +6350,7 @@
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Leggermente vero</t>
+          <t>Moderatamente falso</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="M66" t="inlineStr">
         <is>
-          <t>Moderatamente falso</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
@@ -6374,16 +6374,16 @@
         </is>
       </c>
       <c r="O66">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>Moderatamente vero</t>
+          <t>Leggermente falso</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Leggermente falso</t>
+          <t>Leggermente vero</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
@@ -6392,95 +6392,6 @@
         </is>
       </c>
       <c r="S66" t="inlineStr">
-        <is>
-          <t>stress</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Sat, 03 Jun 2023 19:49:10</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>Piacevole</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="E67">
-        <v>29</v>
-      </c>
-      <c r="F67">
-        <v>11</v>
-      </c>
-      <c r="G67">
-        <v>69</v>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="O67">
-        <v>8</v>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Leggermente falso</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>Leggermente vero</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Moderatamente falso</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
         <is>
           <t>stress</t>
         </is>
